--- a/va_facility_data_2025-02-20/Malcom Randall Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Malcom%20Randall%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Malcom Randall Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Malcom%20Randall%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R0540e33afa5f4f4dbbc23cfdcfb11882"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R5399ce8796a04adaaa402c0c5ce02108"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc706e3e667fb43d992a6b160d7fb16ff"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R79e92568b9fd44dd9cd3d664ebaa7118"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf6a0501963124c04862fa4acca33ac7e"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R318cfbb0b30b4f388bae4555098be3eb"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R9dc96833909a4b64b4e1eb0f7ce1acfc"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Ra6606969da8248dca0ee3198fa6af0cf"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra22166ee744641adb5e9c22848f0cc41"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Re86555d04fb242a4bc3a0b905bdbbd32"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R35526d6e75524f85a6bde5785080dc48"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rc0bf94c50f424bb7ba0d5731730910ea"/>
   </x:sheets>
 </x:workbook>
 </file>
